--- a/documentation-generator/vocab_csv/rights.xlsx
+++ b/documentation-generator/vocab_csv/rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="307">
   <si>
     <t>Term</t>
   </si>
@@ -21,7 +21,7 @@
     <t>Label</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>Definition</t>
   </si>
   <si>
     <t>ParentTerm</t>
@@ -39,7 +39,7 @@
     <t>Relation</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t>Usage</t>
   </si>
   <si>
     <t>Source</t>
@@ -96,9 +96,6 @@
     <t>dpv:Right</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>Based on use of definitions, the notion of 'Data Subject Right' can be equivalent to 'Individual Right' or 'Right of a Person'</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Information associated with exercising of an active right</t>
+  </si>
+  <si>
+    <t>dpv:OrganisationalMeasure</t>
   </si>
   <si>
     <t>This concept is intended for providing information regarding a right exercise. For specific instances of such exercises, see RightExerciseActivity and RightExerciseRecord.</t>
@@ -2473,17 +2473,15 @@
       <c r="C3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="14">
@@ -2494,7 +2492,7 @@
         <v>20</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>22</v>
@@ -2518,7 +2516,6 @@
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
       <c r="J4" s="15"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
@@ -2527,12 +2524,11 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
       <c r="J5" s="15"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
@@ -2541,25 +2537,23 @@
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="14">
@@ -2570,7 +2564,7 @@
         <v>20</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
@@ -2589,25 +2583,23 @@
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="14">
@@ -2618,7 +2610,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
@@ -2649,7 +2641,7 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
@@ -2663,19 +2655,17 @@
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -2692,7 +2682,7 @@
         <v>20</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O10" s="16" t="s">
         <v>45</v>
@@ -2721,11 +2711,9 @@
       <c r="C11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="D11" s="13"/>
       <c r="E11" s="12" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -2742,7 +2730,7 @@
         <v>20</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O11" s="16" t="s">
         <v>45</v>
@@ -2775,7 +2763,7 @@
         <v>53</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -2792,7 +2780,7 @@
         <v>20</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="16" t="s">
         <v>45</v>
@@ -2845,7 +2833,7 @@
         <v>59</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -2895,7 +2883,7 @@
         <v>59</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -9330,7 +9318,7 @@
         <v>111</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -9379,8 +9367,8 @@
       <c r="D6" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>27</v>
+      <c r="E6" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
@@ -9430,7 +9418,7 @@
         <v>122</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -9480,7 +9468,7 @@
         <v>122</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -9530,7 +9518,7 @@
         <v>122</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -9580,7 +9568,7 @@
         <v>122</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -9630,7 +9618,7 @@
         <v>122</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -9679,8 +9667,8 @@
       <c r="D12" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>27</v>
+      <c r="E12" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
@@ -9730,7 +9718,7 @@
         <v>141</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -9780,7 +9768,7 @@
         <v>141</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -9830,7 +9818,7 @@
         <v>141</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -9880,7 +9868,7 @@
         <v>141</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -9930,7 +9918,7 @@
         <v>141</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -9980,7 +9968,7 @@
         <v>141</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -10030,7 +10018,7 @@
         <v>141</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -10080,7 +10068,7 @@
         <v>141</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -10130,7 +10118,7 @@
         <v>141</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
@@ -10180,7 +10168,7 @@
         <v>141</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -10230,7 +10218,7 @@
         <v>141</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -10280,7 +10268,7 @@
         <v>141</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
@@ -10330,7 +10318,7 @@
         <v>141</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -10380,7 +10368,7 @@
         <v>141</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -10429,8 +10417,8 @@
       <c r="D27" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>27</v>
+      <c r="E27" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
@@ -10480,7 +10468,7 @@
         <v>187</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -10530,7 +10518,7 @@
         <v>187</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
@@ -10580,7 +10568,7 @@
         <v>187</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
@@ -10630,7 +10618,7 @@
         <v>187</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
@@ -10680,7 +10668,7 @@
         <v>187</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
@@ -10730,7 +10718,7 @@
         <v>187</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
@@ -10780,7 +10768,7 @@
         <v>187</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
@@ -10829,8 +10817,8 @@
       <c r="D35" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>27</v>
+      <c r="E35" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
@@ -10880,7 +10868,7 @@
         <v>212</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
@@ -10930,7 +10918,7 @@
         <v>212</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
@@ -10980,7 +10968,7 @@
         <v>212</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
@@ -11030,7 +11018,7 @@
         <v>212</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
@@ -11080,7 +11068,7 @@
         <v>212</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
@@ -11130,7 +11118,7 @@
         <v>212</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
@@ -11180,7 +11168,7 @@
         <v>212</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -11230,7 +11218,7 @@
         <v>212</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -11280,7 +11268,7 @@
         <v>212</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
@@ -11330,7 +11318,7 @@
         <v>212</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
@@ -11380,7 +11368,7 @@
         <v>212</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
@@ -11430,7 +11418,7 @@
         <v>212</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
@@ -11479,8 +11467,8 @@
       <c r="D48" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>27</v>
+      <c r="E48" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="F48" s="32"/>
       <c r="G48" s="32"/>
@@ -11530,7 +11518,7 @@
         <v>252</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
@@ -11580,7 +11568,7 @@
         <v>252</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
@@ -11630,7 +11618,7 @@
         <v>252</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
@@ -11680,7 +11668,7 @@
         <v>252</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
@@ -11730,7 +11718,7 @@
         <v>252</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
@@ -11780,7 +11768,7 @@
         <v>252</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -11830,7 +11818,7 @@
         <v>252</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
@@ -11880,7 +11868,7 @@
         <v>252</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
@@ -11929,8 +11917,8 @@
       <c r="D57" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E57" s="9" t="s">
-        <v>27</v>
+      <c r="E57" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="F57" s="32"/>
       <c r="G57" s="32"/>
@@ -11980,7 +11968,7 @@
         <v>280</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
@@ -12030,7 +12018,7 @@
         <v>280</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
@@ -12080,7 +12068,7 @@
         <v>280</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
@@ -12130,7 +12118,7 @@
         <v>280</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
@@ -12180,7 +12168,7 @@
         <v>118</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
@@ -12230,7 +12218,7 @@
         <v>296</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
@@ -12280,7 +12268,7 @@
         <v>296</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
@@ -12330,7 +12318,7 @@
         <v>296</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
@@ -12380,7 +12368,7 @@
         <v>296</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
@@ -12548,12 +12536,12 @@
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C6 D2:D12 E2:I6 J2:O223 P2:AB6 AC2:AD27 A24:C27 D24:D25 E24:I27 P24:AB27 D27:D35 A41:I42 P41:AD42 D48 D57 D62 A66:I223 P66:AD223">
+  <conditionalFormatting sqref="A2:C6 D2:D12 E2:E223 F2:I6 J2:O223 P2:AB6 AC2:AD27 A24:C27 D24:D25 F24:I27 P24:AB27 D27:D35 A41:D42 F41:I42 P41:AD42 D48 D57 D62 A66:D223 F66:I223 P66:AD223">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>$M2="changed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C6 D2:D12 E2:I6 J2:O223 P2:AB6 AC2:AD27 A24:C27 D24:D25 E24:I27 P24:AB27 D27:D35 A41:I42 P41:AD42 D48 D57 D62 A66:I223 P66:AD223">
+  <conditionalFormatting sqref="A2:C6 D2:D12 E2:E223 F2:I6 J2:O223 P2:AB6 AC2:AD27 A24:C27 D24:D25 F24:I27 P24:AB27 D27:D35 A41:D42 F41:I42 P41:AD42 D48 D57 D62 A66:D223 F66:I223 P66:AD223">
     <cfRule type="expression" dxfId="5" priority="4">
       <formula>$M2="deprecated"</formula>
     </cfRule>

--- a/documentation-generator/vocab_csv/rights.xlsx
+++ b/documentation-generator/vocab_csv/rights.xlsx
@@ -383,7 +383,7 @@
     <t>T1 Dignity</t>
   </si>
   <si>
-    <t>rights-eu:EUFundamentalRights</t>
+    <t>eu-rights:EUFundamentalRights</t>
   </si>
   <si>
     <r>
@@ -409,7 +409,7 @@
     <t>A1 Human Dignity</t>
   </si>
   <si>
-    <t>rights-eu:T1-Dignity,rights-eu:EUFundamentalRights</t>
+    <t>eu-rights:T1-Dignity,eu-rights:EUFundamentalRights</t>
   </si>
   <si>
     <r>
@@ -550,7 +550,7 @@
     <t>A6 Right To Libery Security</t>
   </si>
   <si>
-    <t>rights-eu:T2-Freedoms,rights-eu:EUFundamentalRights</t>
+    <t>eu-rights:T2-Freedoms,eu-rights:EUFundamentalRights</t>
   </si>
   <si>
     <r>
@@ -898,7 +898,7 @@
     <t>A20 Equality Before Law</t>
   </si>
   <si>
-    <t>rights-eu:T3-Equality,rights-eu:EUFundamentalRights</t>
+    <t>eu-rights:T3-Equality,eu-rights:EUFundamentalRights</t>
   </si>
   <si>
     <r>
@@ -1085,7 +1085,7 @@
     <t>A27 Workers Right To Information Consultation</t>
   </si>
   <si>
-    <t>rights-eu:T4-Solidarity,rights-eu:EUFundamentalRights</t>
+    <t>eu-rights:T4-Solidarity,eu-rights:EUFundamentalRights</t>
   </si>
   <si>
     <r>
@@ -1387,7 +1387,7 @@
     <t>A39 Right To Vote Stand As Canditate E U Parliament</t>
   </si>
   <si>
-    <t>rights-eu:T5-CitizensRights,rights-eu:EUFundamentalRights</t>
+    <t>eu-rights:T5-CitizensRights,eu-rights:EUFundamentalRights</t>
   </si>
   <si>
     <r>
@@ -1597,7 +1597,7 @@
     <t>A47 Right To Effective Remedy Fair Trial</t>
   </si>
   <si>
-    <t>rights-eu:T6-Justice,rights-eu:EUFundamentalRights</t>
+    <t>eu-rights:T6-Justice,eu-rights:EUFundamentalRights</t>
   </si>
   <si>
     <r>
@@ -1715,7 +1715,7 @@
     <t>A51 Field Of Application</t>
   </si>
   <si>
-    <t>rights-eu:T7-InterpretationAndApplication,rights-eu:EUFundamentalRights</t>
+    <t>eu-rights:T7-InterpretationAndApplication,eu-rights:EUFundamentalRights</t>
   </si>
   <si>
     <r>
